--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H2">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>598.3780815097649</v>
+        <v>2286.013601737199</v>
       </c>
       <c r="R2">
-        <v>5385.402733587885</v>
+        <v>20574.12241563479</v>
       </c>
       <c r="S2">
-        <v>0.007819368336483005</v>
+        <v>0.02151427949257664</v>
       </c>
       <c r="T2">
-        <v>0.007819368336483007</v>
+        <v>0.02151427949257664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H3">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>919.2904657724399</v>
+        <v>1882.547583030781</v>
       </c>
       <c r="R3">
-        <v>8273.61419195196</v>
+        <v>16942.92824727703</v>
       </c>
       <c r="S3">
-        <v>0.01201292457430098</v>
+        <v>0.01771715392621489</v>
       </c>
       <c r="T3">
-        <v>0.01201292457430098</v>
+        <v>0.01771715392621489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H4">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>459.36301848756</v>
+        <v>1086.101304761807</v>
       </c>
       <c r="R4">
-        <v>4134.26716638804</v>
+        <v>9774.91174285626</v>
       </c>
       <c r="S4">
-        <v>0.006002774420898082</v>
+        <v>0.01022158705011236</v>
       </c>
       <c r="T4">
-        <v>0.006002774420898082</v>
+        <v>0.01022158705011236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H5">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>731.1578857383749</v>
+        <v>1097.78196546385</v>
       </c>
       <c r="R5">
-        <v>6580.420971645375</v>
+        <v>9880.037689174653</v>
       </c>
       <c r="S5">
-        <v>0.009554482353844724</v>
+        <v>0.01033151684178585</v>
       </c>
       <c r="T5">
-        <v>0.009554482353844724</v>
+        <v>0.01033151684178585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H6">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>367.2764972352899</v>
+        <v>826.8838864362743</v>
       </c>
       <c r="R6">
-        <v>3305.48847511761</v>
+        <v>7441.954977926469</v>
       </c>
       <c r="S6">
-        <v>0.004799424146636542</v>
+        <v>0.007782023268443847</v>
       </c>
       <c r="T6">
-        <v>0.004799424146636542</v>
+        <v>0.007782023268443848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H7">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>482.15023003155</v>
+        <v>1383.448158612186</v>
       </c>
       <c r="R7">
-        <v>4339.352070283951</v>
+        <v>12451.03342750968</v>
       </c>
       <c r="S7">
-        <v>0.006300548697613308</v>
+        <v>0.01301999704868543</v>
       </c>
       <c r="T7">
-        <v>0.00630054869761331</v>
+        <v>0.01301999704868543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>4116.731782799158</v>
+        <v>7680.022620944543</v>
       </c>
       <c r="R8">
-        <v>37050.58604519242</v>
+        <v>69120.20358850088</v>
       </c>
       <c r="S8">
-        <v>0.05379582432396909</v>
+        <v>0.07227872706039429</v>
       </c>
       <c r="T8">
-        <v>0.05379582432396909</v>
+        <v>0.07227872706039429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>6324.550305253596</v>
@@ -1013,10 +1013,10 @@
         <v>56920.95274728237</v>
       </c>
       <c r="S9">
-        <v>0.08264672441647054</v>
+        <v>0.0595220180792823</v>
       </c>
       <c r="T9">
-        <v>0.08264672441647056</v>
+        <v>0.0595220180792823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>3160.333569169069</v>
+        <v>3648.833315282687</v>
       </c>
       <c r="R10">
-        <v>28443.00212252162</v>
+        <v>32839.49983754418</v>
       </c>
       <c r="S10">
-        <v>0.04129799036277312</v>
+        <v>0.03434013678097151</v>
       </c>
       <c r="T10">
-        <v>0.04129799036277312</v>
+        <v>0.03434013678097151</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>5030.232556093858</v>
+        <v>3688.075312071815</v>
       </c>
       <c r="R11">
-        <v>45272.09300484472</v>
+        <v>33192.67780864633</v>
       </c>
       <c r="S11">
-        <v>0.06573309148460914</v>
+        <v>0.03470945360661355</v>
       </c>
       <c r="T11">
-        <v>0.06573309148460915</v>
+        <v>0.03470945360661355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>2526.795141674974</v>
+        <v>2777.974263976046</v>
       </c>
       <c r="R12">
-        <v>22741.15627507476</v>
+        <v>25001.76837578441</v>
       </c>
       <c r="S12">
-        <v>0.03301916051761322</v>
+        <v>0.02614425158841915</v>
       </c>
       <c r="T12">
-        <v>0.03301916051761323</v>
+        <v>0.02614425158841915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>3317.105417776597</v>
+        <v>4647.790872710262</v>
       </c>
       <c r="R13">
-        <v>29853.94875998937</v>
+        <v>41830.11785439236</v>
       </c>
       <c r="S13">
-        <v>0.04334662293628024</v>
+        <v>0.04374159094353046</v>
       </c>
       <c r="T13">
-        <v>0.04334662293628026</v>
+        <v>0.04374159094353046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H14">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>2985.146061749132</v>
+        <v>6971.633478339717</v>
       </c>
       <c r="R14">
-        <v>26866.31455574218</v>
+        <v>62744.70130505745</v>
       </c>
       <c r="S14">
-        <v>0.0390087092363479</v>
+        <v>0.06561188921134328</v>
       </c>
       <c r="T14">
-        <v>0.0390087092363479</v>
+        <v>0.0656118892113433</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H15">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>4586.090965398005</v>
+        <v>5741.187079749363</v>
       </c>
       <c r="R15">
-        <v>41274.81868858205</v>
+        <v>51670.68371774427</v>
       </c>
       <c r="S15">
-        <v>0.05992922466776339</v>
+        <v>0.05403183225114393</v>
       </c>
       <c r="T15">
-        <v>0.0599292246677634</v>
+        <v>0.05403183225114395</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H16">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>2291.637591556661</v>
+        <v>3312.272600386885</v>
       </c>
       <c r="R16">
-        <v>20624.73832400995</v>
+        <v>29810.45340348196</v>
       </c>
       <c r="S16">
-        <v>0.02994621456872315</v>
+        <v>0.03117267474969261</v>
       </c>
       <c r="T16">
-        <v>0.02994621456872315</v>
+        <v>0.03117267474969262</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H17">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>3647.548515851034</v>
+        <v>3347.894997881638</v>
       </c>
       <c r="R17">
-        <v>32827.9366426593</v>
+        <v>30131.05498093474</v>
       </c>
       <c r="S17">
-        <v>0.04766472277639017</v>
+        <v>0.03150792656766754</v>
       </c>
       <c r="T17">
-        <v>0.04766472277639018</v>
+        <v>0.03150792656766754</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H18">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>1832.242896545752</v>
+        <v>2521.739757365408</v>
       </c>
       <c r="R18">
-        <v>16490.18606891177</v>
+        <v>22695.65781628868</v>
       </c>
       <c r="S18">
-        <v>0.02394302621153405</v>
+        <v>0.02373276077897055</v>
       </c>
       <c r="T18">
-        <v>0.02394302621153405</v>
+        <v>0.02373276077897055</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H19">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>2405.316813608307</v>
+        <v>4219.088412596827</v>
       </c>
       <c r="R19">
-        <v>21647.85132247476</v>
+        <v>37971.79571337145</v>
       </c>
       <c r="S19">
-        <v>0.03143172972526745</v>
+        <v>0.03970695854281916</v>
       </c>
       <c r="T19">
-        <v>0.03143172972526746</v>
+        <v>0.03970695854281917</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H20">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>1069.872629646494</v>
+        <v>1584.70968699344</v>
       </c>
       <c r="R20">
-        <v>9628.853666818444</v>
+        <v>14262.38718294096</v>
       </c>
       <c r="S20">
-        <v>0.01398067279339523</v>
+        <v>0.01491412259956009</v>
       </c>
       <c r="T20">
-        <v>0.01398067279339523</v>
+        <v>0.01491412259956009</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H21">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>1643.649288662757</v>
+        <v>1305.01909034482</v>
       </c>
       <c r="R21">
-        <v>14792.84359796481</v>
+        <v>11745.17181310338</v>
       </c>
       <c r="S21">
-        <v>0.02147855946131048</v>
+        <v>0.01228188031404998</v>
       </c>
       <c r="T21">
-        <v>0.02147855946131049</v>
+        <v>0.01228188031404998</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H22">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>821.3200578999092</v>
+        <v>752.9068319647356</v>
       </c>
       <c r="R22">
-        <v>7391.880521099183</v>
+        <v>6776.16148768262</v>
       </c>
       <c r="S22">
-        <v>0.01073268599454229</v>
+        <v>0.007085805614826746</v>
       </c>
       <c r="T22">
-        <v>0.01073268599454229</v>
+        <v>0.007085805614826747</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H23">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>1307.276843977983</v>
+        <v>761.0040961940236</v>
       </c>
       <c r="R23">
-        <v>11765.49159580185</v>
+        <v>6849.036865746211</v>
       </c>
       <c r="S23">
-        <v>0.01708297726251536</v>
+        <v>0.007162011113176259</v>
       </c>
       <c r="T23">
-        <v>0.01708297726251536</v>
+        <v>0.007162011113176259</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H24">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>656.6735715202838</v>
+        <v>573.2122082994448</v>
       </c>
       <c r="R24">
-        <v>5910.062143682555</v>
+        <v>5158.909874695003</v>
       </c>
       <c r="S24">
-        <v>0.008581150766076517</v>
+        <v>0.005394651916567658</v>
       </c>
       <c r="T24">
-        <v>0.008581150766076517</v>
+        <v>0.005394651916567658</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H25">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>862.0625494620466</v>
+        <v>959.0335318827222</v>
       </c>
       <c r="R25">
-        <v>7758.56294515842</v>
+        <v>8631.301786944499</v>
       </c>
       <c r="S25">
-        <v>0.01126509277599824</v>
+        <v>0.009025718583650739</v>
       </c>
       <c r="T25">
-        <v>0.01126509277599825</v>
+        <v>0.009025718583650741</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H26">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>1382.114266886187</v>
+        <v>2634.350525884985</v>
       </c>
       <c r="R26">
-        <v>12439.02840197569</v>
+        <v>23709.15473296487</v>
       </c>
       <c r="S26">
-        <v>0.01806092313512474</v>
+        <v>0.02479257054824004</v>
       </c>
       <c r="T26">
-        <v>0.01806092313512475</v>
+        <v>0.02479257054824005</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H27">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>2123.347273935539</v>
+        <v>2169.405383936455</v>
       </c>
       <c r="R27">
-        <v>19110.12546541986</v>
+        <v>19524.6484554281</v>
       </c>
       <c r="S27">
-        <v>0.02774706319335347</v>
+        <v>0.02041684866933482</v>
       </c>
       <c r="T27">
-        <v>0.02774706319335348</v>
+        <v>0.02041684866933482</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H28">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>1061.021787311572</v>
+        <v>1251.598652426809</v>
       </c>
       <c r="R28">
-        <v>9549.196085804144</v>
+        <v>11264.38787184128</v>
       </c>
       <c r="S28">
-        <v>0.01386501348293005</v>
+        <v>0.01177912642356107</v>
       </c>
       <c r="T28">
-        <v>0.01386501348293005</v>
+        <v>0.01177912642356107</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H29">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>1688.804748121206</v>
+        <v>1265.059182425287</v>
       </c>
       <c r="R29">
-        <v>15199.24273309085</v>
+        <v>11385.53264182759</v>
       </c>
       <c r="S29">
-        <v>0.02206863316357221</v>
+        <v>0.01190580703660966</v>
       </c>
       <c r="T29">
-        <v>0.02206863316357221</v>
+        <v>0.01190580703660966</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H30">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>848.3233300259105</v>
+        <v>952.8823448048926</v>
       </c>
       <c r="R30">
-        <v>7634.909970233195</v>
+        <v>8575.941103244033</v>
       </c>
       <c r="S30">
-        <v>0.01108555408508254</v>
+        <v>0.008967828132822719</v>
       </c>
       <c r="T30">
-        <v>0.01108555408508254</v>
+        <v>0.00896782813282272</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H31">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>1113.654948770358</v>
+        <v>1594.254461742962</v>
       </c>
       <c r="R31">
-        <v>10022.89453893322</v>
+        <v>14348.29015568666</v>
       </c>
       <c r="S31">
-        <v>0.01455280284032334</v>
+        <v>0.01500395100281143</v>
       </c>
       <c r="T31">
-        <v>0.01455280284032334</v>
+        <v>0.01500395100281143</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H32">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I32">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J32">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>2719.003190454513</v>
+        <v>7210.452765560439</v>
       </c>
       <c r="R32">
-        <v>24471.02871409062</v>
+        <v>64894.07489004394</v>
       </c>
       <c r="S32">
-        <v>0.03553085935332564</v>
+        <v>0.06785948077841884</v>
       </c>
       <c r="T32">
-        <v>0.03553085935332566</v>
+        <v>0.06785948077841884</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H33">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I33">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J33">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>4177.214685208834</v>
+        <v>5937.856369729462</v>
       </c>
       <c r="R33">
-        <v>37594.93216687952</v>
+        <v>53440.70732756516</v>
       </c>
       <c r="S33">
-        <v>0.05458619099449877</v>
+        <v>0.05588273903009883</v>
       </c>
       <c r="T33">
-        <v>0.0545861909944988</v>
+        <v>0.05588273903009883</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H34">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I34">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J34">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>2087.324973022276</v>
+        <v>3425.737340603479</v>
       </c>
       <c r="R34">
-        <v>18785.92475720048</v>
+        <v>30831.6360654313</v>
       </c>
       <c r="S34">
-        <v>0.02727633799824312</v>
+        <v>0.03224052147279056</v>
       </c>
       <c r="T34">
-        <v>0.02727633799824313</v>
+        <v>0.03224052147279056</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H35">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I35">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J35">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>3322.348671316056</v>
+        <v>3462.580013892308</v>
       </c>
       <c r="R35">
-        <v>29901.1380418445</v>
+        <v>31163.22012503077</v>
       </c>
       <c r="S35">
-        <v>0.04341513970180607</v>
+        <v>0.03258725762947276</v>
       </c>
       <c r="T35">
-        <v>0.04341513970180608</v>
+        <v>0.03258725762947276</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H36">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I36">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J36">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>1668.887946634146</v>
+        <v>2608.124116681094</v>
       </c>
       <c r="R36">
-        <v>15019.99151970732</v>
+        <v>23473.11705012985</v>
       </c>
       <c r="S36">
-        <v>0.02180836827131715</v>
+        <v>0.02454574686474559</v>
       </c>
       <c r="T36">
-        <v>0.02180836827131715</v>
+        <v>0.02454574686474559</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H37">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I37">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J37">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>2190.869041236378</v>
+        <v>4363.616906607322</v>
       </c>
       <c r="R37">
-        <v>19717.8213711274</v>
+        <v>39272.55215946589</v>
       </c>
       <c r="S37">
-        <v>0.02862941096906646</v>
+        <v>0.04106715448059487</v>
       </c>
       <c r="T37">
-        <v>0.02862941096906647</v>
+        <v>0.04106715448059487</v>
       </c>
     </row>
   </sheetData>
